--- a/tables/table_19.xlsx
+++ b/tables/table_19.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
-  <si>
-    <t>Year</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>(%)</t>
   </si>
   <si>
     <t>Flexible working hours</t>
@@ -398,137 +410,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2">
+        <v>2018</v>
+      </c>
+      <c r="D2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D2">
-        <v>58.4</v>
-      </c>
-      <c r="E2">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="F2">
-        <v>21.1</v>
-      </c>
-      <c r="G2">
-        <v>41.6</v>
-      </c>
-      <c r="H2">
-        <v>6.1</v>
-      </c>
-      <c r="I2">
-        <v>13.2</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>2018</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
       <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C4">
         <v>79.90000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D4">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>58.4</v>
+      </c>
+      <c r="C5">
         <v>59.9</v>
       </c>
-      <c r="E3">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="C6">
         <v>94.59999999999999</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>21.1</v>
+      </c>
+      <c r="C7">
         <v>20.1</v>
       </c>
-      <c r="G3">
+      <c r="D7">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>41.6</v>
+      </c>
+      <c r="C8">
         <v>40.1</v>
       </c>
-      <c r="H3">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6.1</v>
+      </c>
+      <c r="C9">
         <v>5.4</v>
       </c>
-      <c r="I3">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>13.2</v>
+      </c>
+      <c r="C10">
         <v>12.8</v>
       </c>
-      <c r="J3">
+      <c r="D10">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1.76</v>
+      </c>
+      <c r="C12">
         <v>1.68</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>80.8</v>
-      </c>
-      <c r="F4">
-        <v>19.2</v>
-      </c>
-      <c r="I4">
-        <v>12.9</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="D12">
         <v>1.8</v>
       </c>
     </row>
